--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,74 @@
   </si>
   <si>
     <t>https://sg.sbiz.or.kr/godo/stat/rent.sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1ES3A01S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시군구_성별_경제활동인구_총괄_20240312160631.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별+1인당+지역내총생산+및+수준지수(2015년+기준)_20240312155945.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/11063/S/2/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 자치구별 경제 활동 인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별 1인당 GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-12912/S/1/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS_STATION_BOARDING_MONTH_202402.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시의 버스 승하차 데이터 (24년 2월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_SUBWAY_MONTH_202402.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시의 지하철 승하차 데이터 (24년 2월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-12914/S/1/datasetView.do#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업체+및+종사자+밀도(동별)_20240312165222.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/96/S/2/datasetView.do#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별 사업체 수 및 종사자 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,20 +492,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="45.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +520,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -463,13 +536,92 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>자치구별 사업체 수 및 종사자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-12913/S/1/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년_버스노선별_정류장별_시간대별_승하차_인원_정보(02월).csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24년 2월 버스 노선/정류장별 승하차 인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="2" bestFit="1" customWidth="1"/>
@@ -611,6 +623,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -620,8 +646,9 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\MiniPrj2\Git\문서작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\2st_miniprj\git\문서작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>자치구별 사업체 수 및 종사자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종사자밀도plot_data.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업체 및 종사자 밀도 데이터 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리데이터 csv정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,19 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,6 +621,20 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>사업체 및 종사자 밀도 데이터 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리데이터 csv정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent_data_group.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별 상권 임대료 데이터 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,6 +649,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>20002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\2st_miniprj\git\문서작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\MiniPrj2\Git\문서작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,41 @@
   <si>
     <t>전처리데이터 csv정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년_버스노선별_정류장별_시간대별_승하차_인원_정보(01월).csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 24년 1월 버스정류장 / 시간별 승하차 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-12913/S/1/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 역사마스터 정보.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시의 각 지하철 역의 좌표 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-21232/S/1/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 지하철 호선별 역별 시간대별 승하차 인원 정보.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시의 지하철 역 별 승하차 인원 정보 (24년 2월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-12252/S/1/datasetView.do</t>
   </si>
 </sst>
 </file>
@@ -516,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,29 +672,71 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>20002</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -672,8 +749,10 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,30 +119,6 @@
   </si>
   <si>
     <t>자치구별 사업체 수 및 종사자 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종사자밀도plot_data.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업체 및 종사자 밀도 데이터 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리데이터 csv정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rent_data_group.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자치구별 상권 임대료 데이터 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리데이터 csv정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,34 +609,6 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>20001</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>20002</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\2st_miniprj\git\문서작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\downtown_walk\github\문서작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,16 @@
   <si>
     <t>전처리데이터 csv정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시_연령대별_주민등록인구.xlsx</t>
+  </si>
+  <si>
+    <t>서울시 자치구별 연령대별 주민등록 인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/10718/S/2/datasetView.do</t>
   </si>
 </sst>
 </file>
@@ -516,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,6 +673,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>30001</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,17 @@
   </si>
   <si>
     <t>https://data.seoul.go.kr/dataList/OA-12252/S/1/datasetView.do</t>
+  </si>
+  <si>
+    <t>상업업무용(매매)_실거래가_20240317102917.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시의 상가 건물 거래 내역 (23년4월 ~ 24년 3월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rt.molit.go.kr/pt/xls/xls.do?&amp;mobileAt=</t>
   </si>
 </sst>
 </file>
@@ -551,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,29 +725,43 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>20001</v>
+        <v>10004</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>20002</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/문서작업/출처 정리.xlsx
+++ b/문서작업/출처 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1ES3A01S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시군구_성별_경제활동인구_총괄_20240312160631.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자치구별+1인당+지역내총생산+및+수준지수(2015년+기준)_20240312155945.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,26 +62,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 자치구별 경제 활동 인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자치구별 1인당 GDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://data.seoul.go.kr/dataList/OA-12912/S/1/datasetView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUS_STATION_BOARDING_MONTH_202402.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시의 버스 승하차 데이터 (24년 2월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CARD_SUBWAY_MONTH_202402.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,38 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자치구별 사업체 수 및 종사자 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종사자밀도plot_data.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업체 및 종사자 밀도 데이터 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리데이터 csv정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rent_data_group.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자치구별 상권 임대료 데이터 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리데이터 csv정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년_버스노선별_정류장별_시간대별_승하차_인원_정보(01월).csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +138,94 @@
   </si>
   <si>
     <t>https://rt.molit.go.kr/pt/xls/xls.do?&amp;mobileAt=</t>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/258/S/2/datasetView.do#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로+현황_20240317153112.csv</t>
+  </si>
+  <si>
+    <t>서울시의 도로 길이와 면적 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starbucks_data.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 스타벅스 매장의 주소 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별 매출액.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 각 자치구의 매출 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.openub.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 크롤링 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.starbucks.co.kr/store/store_map.do?disp=locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://golmok.seoul.go.kr/stateArea.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 각 자치구 자영업의 생존 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoul_survival.csv</t>
+  </si>
+  <si>
+    <t>서울시버스정류소위치정보(20240305).xlsx</t>
+  </si>
+  <si>
+    <t>서울시 버스정류장의 좌표 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/OA-15067/S/1/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정구역(구별)_20240319093446.xlsx</t>
+  </si>
+  <si>
+    <t>서울시 각 자치구의 면적 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/412/S/2/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시_연령대별_주민등록인구.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 각 자치구의 연령대별 인구수 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/dataList/10718/S/2/datasetView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,22 +643,22 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,13 +666,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -644,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,97 +708,148 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>10001</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>10002</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>10003</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10004</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>20001</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>20002</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -773,11 +860,16 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>